--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruth Yamile Guiza\Documents\UiPath\RobotPagoDeFacturasGastosGenerales\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B47E5D-811D-421B-9371-1163E3CAF1A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D8B3D6-CA8A-4D73-A93D-945316DB40C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -223,19 +223,25 @@
     <t>Description (Assets will always overwrite other config)</t>
   </si>
   <si>
-    <t>C:\Users\Ruth Yamile Guiza\Documents\UiPath\Nomina\Nominas</t>
-  </si>
-  <si>
-    <t>C:\Users\Ruth Yamile Guiza\Documents\UiPath\Nomina\Procesados</t>
-  </si>
-  <si>
-    <t>C:\Users\Ruth Yamile Guiza\Documents\UiPath\Nomina\Recuperacion\Pago_Facturas-Odoo.xlsx</t>
-  </si>
-  <si>
     <t>ruth@2nv.co</t>
   </si>
   <si>
     <t xml:space="preserve">Juan </t>
+  </si>
+  <si>
+    <t>facturacion</t>
+  </si>
+  <si>
+    <t>https://bps-latam.odoo.com/web#view_type=kanban&amp;model=account.journal&amp;menu_id=83&amp;action=222</t>
+  </si>
+  <si>
+    <t>C:\Users\Ruth Yamile Guiza\Documents\UiPath\Facturas\Facturas</t>
+  </si>
+  <si>
+    <t>C:\Users\Ruth Yamile Guiza\Documents\UiPath\Facturas\Procesados</t>
+  </si>
+  <si>
+    <t>C:\Users\Ruth Yamile Guiza\Documents\UiPath\Facturas\Recuperacion\Pago_Facturas-Odoo.xlsx</t>
   </si>
 </sst>
 </file>
@@ -538,7 +544,7 @@
   <dimension ref="A1:W1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -784,7 +790,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -815,7 +821,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -846,7 +852,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -902,7 +908,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
@@ -933,7 +939,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>22</v>
@@ -985,8 +991,12 @@
       <c r="W15" s="4"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruth Yamile Guiza\Documents\UiPath\RobotPagoDeFacturasGastosGenerales\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D8B3D6-CA8A-4D73-A93D-945316DB40C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F087DE70-5462-47A6-A772-B2846E4D4AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,10 +238,10 @@
     <t>C:\Users\Ruth Yamile Guiza\Documents\UiPath\Facturas\Facturas</t>
   </si>
   <si>
-    <t>C:\Users\Ruth Yamile Guiza\Documents\UiPath\Facturas\Procesados</t>
-  </si>
-  <si>
     <t>C:\Users\Ruth Yamile Guiza\Documents\UiPath\Facturas\Recuperacion\Pago_Facturas-Odoo.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\Ruth Yamile Guiza\Documents\UiPath\Facturas\Procesados\</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
   <dimension ref="A1:W1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -821,7 +821,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -852,7 +852,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -4910,18 +4910,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5095,18 +5095,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA744273-50CC-4396-95C9-5F8697835789}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E10EF1A4-B01D-42E3-883B-A21F9D52BF46}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E10EF1A4-B01D-42E3-883B-A21F9D52BF46}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA744273-50CC-4396-95C9-5F8697835789}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
